--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="-20" windowWidth="14400" windowHeight="16640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="265">
   <si>
     <t>K-Nearest Neighbors</t>
   </si>
@@ -701,6 +701,120 @@
   </si>
   <si>
     <t xml:space="preserve">  0.  1.  0.  0.  0.  1.  0.  1.  1.  0.  0.  0.  0.  0.  0.  0.  0.  1.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Sensitivity:45.0%</t>
+  </si>
+  <si>
+    <t>Specificity:73.6842105263%</t>
+  </si>
+  <si>
+    <t>Precision:64.2857142857%</t>
+  </si>
+  <si>
+    <t>Recall:45.0%</t>
+  </si>
+  <si>
+    <t>F-Measure:52.9411764706%</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  1.  0.  0.  0.  0.  0.  0.  0.  1.  0.  1.  0.  1.  1.  0.  1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.  1.  0.  0.  0.  0.  0.  1.  0.  1.  0.  0.  1.  0.  1.  0.  0.  1.</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  0.  1.  1.  0.  0.  1.  0.  1.  0.  0.  0.  0.  1.  1.  0.  0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  1.  1.  1.  1.  1.  0.  1.  0.  1.  0.  0.  1.  0.  0.  0.  1.  1.</t>
+  </si>
+  <si>
+    <t>Sensitivity:70.0%</t>
+  </si>
+  <si>
+    <t>Specificity:68.4210526316%</t>
+  </si>
+  <si>
+    <t>Recall:70.0%</t>
+  </si>
+  <si>
+    <t>F-Measure:70.0%</t>
+  </si>
+  <si>
+    <t>[ 0.  0.  0.  0.  1.  0.  1.  1.  1.  1.  0.  1.  1.  1.  0.  1.  1.  1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  1.  0.  0.  0.  0.  0.  1.  0.  0.  1.  1.  1.  0.  0.  1.  0.  1.</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  0.  1.  1.  0.  1.  1.  0.  1.  0.  1.  1.  1.  1.  1.  0.  1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  0.  0.  1.  1.  0.  0.  0.  0.  0.  0.  1.  1.  0.  0.  1.  1.  0.</t>
+  </si>
+  <si>
+    <t>Specificity:57.8947368421%</t>
+  </si>
+  <si>
+    <t>F-Measure:63.4146341463%</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  1.  1.  0.  0.  0.  1.  1.  1.  1.  1.  1.  1.  0.  0.  0.  1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.  0.  1.  0.  1.  1.  1.  0.  0.  1.  1.  0.  0.  1.  0.  0.  0.  1.</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  0.  0.  0.  1.  1.  1.  0.  1.  1.  1.  1.  1.  1.  0.  0.  1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  0.  1.  0.  0.  1.  1.  0.  1.  0.  0.  0.  0.  1.  1.  0.  1.  0.</t>
+  </si>
+  <si>
+    <t>Neural Network configuration: iterations=500 | LearningRate=0.1 | Momentum:0.3</t>
+  </si>
+  <si>
+    <t>[ 0.  0.  1.  1.  0.  0.  0.  0.  1.  1.  1.  1.  1.  1.  1.  0.  0.  0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  1.  0.  0.  0.  1.  1.  1.  0.  0.  1.  0.  1.  0.  0.  1.  1.  0.</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  0.  1.  1.  0.  1.  0.  0.  0.  1.  1.  1.  0.  0.  1.  0.  0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.  1.  0.  1.  0.  1.  1.  1.  0.  1.  1.  0.  1.  1.  0.  0.  0.  1.</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  0.  0.  1.  0.  1.  1.  0.  0.  1.  0.  0.  1.  1.  1.  1.  0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  0.  1.  1.  1.  1.  0.  0.  1.  0.  1.  0.  0.  0.  1.  1.  1.  0.</t>
+  </si>
+  <si>
+    <t>[ 1.  1.  1.  0.  1.  1.  1.  1.  1.  0.  0.  1.  0.  0.  0.  0.  0.  0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  0.  1.  1.  0.  1.  0.  1.  0.  1.  1.  0.  0.  0.  1.  1.  1.  1.</t>
+  </si>
+  <si>
+    <t>Precision:65.0%</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  1.  0.  0.  0.  0.  1.  1.  0.  0.  1.  0.  0.  0.  0.  0.  1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  1.  1.  1.  1.  0.  0.  1.  0.  0.  1.  1.  1.  0.  0.  1.  1.  1.</t>
+  </si>
+  <si>
+    <t>[ 0.  1.  0.  0.  1.  1.  0.  1.  0.  0.  0.  0.  1.  0.  1.  0.  1.  1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.  0.  1.  1.  1.  0.  0.  1.  0.  0.  0.  0.  1.  1.  0.  0.  1.  1.</t>
   </si>
 </sst>
 </file>
@@ -811,7 +925,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,6 +933,38 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -847,7 +993,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -858,12 +1004,44 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1195,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1538,7 +1716,9 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4492,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4563,7 +4743,9 @@
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -4585,7 +4767,9 @@
       <c r="J4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -4605,7 +4789,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -4625,7 +4811,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4645,7 +4833,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -4665,7 +4855,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -4703,7 +4895,9 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -4723,7 +4917,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -4743,7 +4939,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -4763,7 +4961,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -4783,7 +4983,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -4803,7 +5005,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -4841,7 +5045,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -4879,7 +5085,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -4899,7 +5107,9 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -4919,7 +5129,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -4939,7 +5151,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -4959,7 +5173,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -4979,7 +5195,9 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -4999,7 +5217,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -5019,7 +5239,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -5061,7 +5283,9 @@
       <c r="J28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -5082,10 +5306,10 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="J29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="5"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -5105,7 +5329,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -5125,7 +5351,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -5145,7 +5373,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -5165,7 +5395,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -5203,7 +5435,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -5223,7 +5457,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -5243,7 +5479,9 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -5263,7 +5501,9 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -5283,7 +5523,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -5303,7 +5545,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -5341,7 +5585,9 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -5379,7 +5625,9 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -5399,7 +5647,9 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -5419,7 +5669,9 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -5439,7 +5691,9 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -5459,7 +5713,9 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -5479,7 +5735,9 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -5499,7 +5757,9 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -5519,7 +5779,9 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="K51" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -5561,7 +5823,9 @@
       <c r="J53" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -5581,7 +5845,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="K54" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5601,7 +5867,9 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="K55" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5621,7 +5889,9 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="K56" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5641,7 +5911,9 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="K57" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5661,7 +5933,9 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5699,7 +5973,9 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5719,7 +5995,9 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+      <c r="K61" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -5739,7 +6017,9 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="K62" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5759,7 +6039,9 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="K63" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5779,7 +6061,9 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="K64" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5799,7 +6083,9 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="K65" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5837,7 +6123,9 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="K67" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5875,7 +6163,9 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="K69" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5895,7 +6185,9 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="K70" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5915,7 +6207,9 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5935,7 +6229,9 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="K72" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5955,7 +6251,9 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="K73" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5975,7 +6273,9 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5995,7 +6295,9 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="K75" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -6015,7 +6317,9 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="K76" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -6057,7 +6361,9 @@
       <c r="J78" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6081,7 +6387,9 @@
       <c r="J79" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6101,7 +6409,9 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="K80" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6121,7 +6431,9 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="K81" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -6141,7 +6453,9 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="K82" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6161,7 +6475,9 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="K83" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6199,7 +6515,9 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="K85" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6219,7 +6537,9 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="K86" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6239,7 +6559,9 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="K87" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6259,7 +6581,9 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="K88" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6279,7 +6603,9 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="K89" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -6299,7 +6625,9 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="K90" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -6337,7 +6665,9 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="K92" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -6375,7 +6705,9 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="K94" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6395,7 +6727,9 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="K95" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6415,7 +6749,9 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="K96" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6435,7 +6771,9 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="K97" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6455,7 +6793,9 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="K98" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -6475,7 +6815,9 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="K99" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -6495,7 +6837,9 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="K100" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -6515,7 +6859,9 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="K101" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -6557,7 +6903,9 @@
       <c r="J103" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K103" s="5"/>
+      <c r="K103" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -6577,7 +6925,9 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="K104" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -6597,7 +6947,9 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="K105" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -6617,7 +6969,9 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="K106" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -6637,7 +6991,9 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="K107" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -6657,7 +7013,9 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="K108" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -6695,7 +7053,9 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="K110" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -6715,7 +7075,9 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="K111" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -6735,7 +7097,9 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="K112" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -6755,7 +7119,9 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
+      <c r="K113" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -6775,7 +7141,9 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="K114" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -6795,7 +7163,9 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
+      <c r="K115" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -6833,7 +7203,9 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
+      <c r="K117" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -6871,7 +7243,9 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="K119" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -6891,7 +7265,9 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="K120" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -6911,7 +7287,9 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+      <c r="K121" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -6931,7 +7309,9 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+      <c r="K122" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -6951,7 +7331,9 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
+      <c r="K123" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -6971,7 +7353,9 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
+      <c r="K124" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -6991,7 +7375,9 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+      <c r="K125" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -7011,7 +7397,9 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
+      <c r="K126" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -7053,7 +7441,9 @@
       <c r="J128" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K128" s="3"/>
+      <c r="K128" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
@@ -7075,7 +7465,9 @@
       <c r="J129" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K129" s="3"/>
+      <c r="K129" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
@@ -7095,7 +7487,9 @@
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="3"/>
+      <c r="K130" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
@@ -7115,7 +7509,9 @@
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="3"/>
+      <c r="K131" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
@@ -7135,7 +7531,9 @@
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="3"/>
+      <c r="K132" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
@@ -7155,7 +7553,9 @@
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="3"/>
+      <c r="K133" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -7193,7 +7593,9 @@
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="3"/>
+      <c r="K135" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
@@ -7213,7 +7615,9 @@
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="3"/>
+      <c r="K136" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
@@ -7233,7 +7637,9 @@
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="3"/>
+      <c r="K137" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
@@ -7253,7 +7659,9 @@
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="3"/>
+      <c r="K138" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
@@ -7273,7 +7681,9 @@
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="3"/>
+      <c r="K139" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
@@ -7293,7 +7703,9 @@
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="3"/>
+      <c r="K140" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
@@ -7331,7 +7743,9 @@
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="3"/>
+      <c r="K142" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
@@ -7369,7 +7783,9 @@
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="3"/>
+      <c r="K144" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
@@ -7389,7 +7805,9 @@
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="3"/>
+      <c r="K145" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
@@ -7409,7 +7827,9 @@
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="3"/>
+      <c r="K146" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
@@ -7429,7 +7849,9 @@
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
@@ -7449,7 +7871,9 @@
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="3"/>
+      <c r="K148" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
@@ -7469,7 +7893,9 @@
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="3"/>
+      <c r="K149" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
@@ -7489,7 +7915,9 @@
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="3"/>
+      <c r="K150" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
@@ -7509,7 +7937,9 @@
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="3"/>
+      <c r="K151" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
@@ -7524,6 +7954,7 @@
     <mergeCell ref="J2:Q2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-20" windowWidth="14400" windowHeight="16640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -933,6 +933,30 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -993,7 +1017,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
@@ -1020,6 +1044,18 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
@@ -1042,6 +1078,18 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1373,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4672,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
